--- a/RUDN/Importance/Varible_f_reg_in_Northern Europe.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Northern Europe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t>F-value</t>
   </si>
@@ -22,79 +22,163 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
-    <t>Population ages 00-14, female (% of total)</t>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>Population ages 75-79, female (% of female population)</t>
@@ -103,43 +187,106 @@
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
   </si>
   <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
   </si>
   <si>
     <t>Rural population (% of total population)</t>
@@ -148,61 +295,217 @@
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Population ages 05-09, male (% of male population)</t>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Population ages 00-04, male (% of male population)</t>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
-    <t>Age dependency ratio (% of working-age population)</t>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
-    <t>Population ages 45-49, male (% of male population)</t>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
@@ -211,103 +514,37 @@
     <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
     <t>Population ages 0-14, female</t>
@@ -319,52 +556,55 @@
     <t>Population ages 0-14, male</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
     <t>Male population 65-69</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 15-19, male (% of male population)</t>
+    <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
     <t>Urban population</t>
@@ -373,160 +613,187 @@
     <t>Male population 55-59</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
     <t>Population, male</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
+    <t>Female population 40-44</t>
   </si>
   <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
-    <t>Hospital beds (per 1,000 people)</t>
+    <t>Female population 60-64</t>
   </si>
   <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
   </si>
   <si>
     <t>Female population 20-24</t>
@@ -535,295 +802,244 @@
     <t>Male population 20-24</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
+    <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
     <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
     <t>Female population 65-69</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
   </si>
   <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C269"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1200,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>826.4824837959004</v>
+        <v>3907.981793175722</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1211,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>826.4824837912091</v>
+        <v>3292.212299121523</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1222,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>532.8366099674055</v>
+        <v>3171.771312583602</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1233,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>442.4656134716693</v>
+        <v>2639.375263443646</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1244,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>442.4656134716693</v>
+        <v>854.9869305791958</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1255,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>429.6056673897189</v>
+        <v>795.0098666747087</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1266,7 +1482,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>404.8690938632471</v>
+        <v>795.0098666669683</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1277,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>338.3439143613882</v>
+        <v>578.525191487583</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1288,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>326.5398893813564</v>
+        <v>578.4961667043027</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1299,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>298.4385046237738</v>
+        <v>576.0279002590213</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1310,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>297.7254554473573</v>
+        <v>573.6936832025522</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1321,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>282.5370441077566</v>
+        <v>520.724382476487</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1332,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>263.2412377731378</v>
+        <v>518.5783083984774</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1343,7 +1559,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>241.3701513373811</v>
+        <v>448.5666368983128</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1354,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>227.181683403897</v>
+        <v>448.5666368983128</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1365,7 +1581,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>203.8219741854576</v>
+        <v>406.8153635020788</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1376,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>203.2245278573084</v>
+        <v>399.7949136900756</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1387,7 +1603,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>201.5117037295873</v>
+        <v>387.4757064254387</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1398,7 +1614,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>198.5002633766573</v>
+        <v>387.4757064254387</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1409,7 +1625,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>198.4957208491561</v>
+        <v>346.8153225989956</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1420,7 +1636,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>183.2747258301463</v>
+        <v>345.9151361768428</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1431,7 +1647,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>180.091180953325</v>
+        <v>322.6376793178643</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1442,7 +1658,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>166.024709475882</v>
+        <v>309.5942791107875</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1453,7 +1669,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>161.7414310243722</v>
+        <v>309.0462043217127</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1464,7 +1680,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>159.7395261526608</v>
+        <v>291.3401537324808</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1475,7 +1691,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>155.0730225595478</v>
+        <v>284.2226249934885</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1486,7 +1702,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>151.6261470470492</v>
+        <v>284.2226249934885</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1497,7 +1713,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>138.8855632697099</v>
+        <v>260.0209935165453</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1508,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>115.8714868390002</v>
+        <v>251.82500293317</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1519,7 +1735,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>115.8714868390002</v>
+        <v>250.4562892729168</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1530,7 +1746,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>115.7111965454696</v>
+        <v>246.075679206736</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1541,7 +1757,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>108.7820727793408</v>
+        <v>239.8185536709893</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1552,7 +1768,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>108.7820727793408</v>
+        <v>220.0992843097203</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1563,7 +1779,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>97.66168162633745</v>
+        <v>207.8727621384986</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1574,7 +1790,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>95.2340837886093</v>
+        <v>205.6275024005626</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1585,7 +1801,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>92.70528425752121</v>
+        <v>204.8308682621502</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1596,7 +1812,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>92.03882786402883</v>
+        <v>196.4348096193732</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1607,7 +1823,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>90.5414105084522</v>
+        <v>191.0546984947581</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1618,7 +1834,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>88.12275927694405</v>
+        <v>188.7863237240751</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1629,7 +1845,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>88.02543533144213</v>
+        <v>188.3421655285739</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1640,7 +1856,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>85.24748667266348</v>
+        <v>187.624826061481</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1651,7 +1867,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>85.24748667266211</v>
+        <v>176.6838098387464</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1662,7 +1878,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>84.32310544714599</v>
+        <v>175.8377484629723</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1673,7 +1889,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>80.42476992396097</v>
+        <v>172.7799565780853</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1684,7 +1900,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>78.89696601965134</v>
+        <v>172.2269485164584</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1695,7 +1911,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>78.64634786412076</v>
+        <v>171.2566532094792</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1706,7 +1922,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>63.90514690250203</v>
+        <v>167.5945242927468</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1717,7 +1933,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>63.81421166320209</v>
+        <v>167.3419278351674</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1728,7 +1944,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>60.32965281033376</v>
+        <v>153.7403525968901</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1739,7 +1955,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>60.06138147594299</v>
+        <v>153.4555235187618</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1750,7 +1966,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>59.12269564469072</v>
+        <v>153.070833769278</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1761,7 +1977,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>57.72233245621998</v>
+        <v>150.773720566392</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1772,7 +1988,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>57.16292869894535</v>
+        <v>150.5451769283776</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1783,7 +1999,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>55.77058500728058</v>
+        <v>149.312987007955</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1794,7 +2010,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>54.42620536798267</v>
+        <v>143.9979354190287</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1805,7 +2021,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>54.02212870222921</v>
+        <v>137.0221923845562</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1816,7 +2032,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>52.92216184320485</v>
+        <v>128.862389498137</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1827,7 +2043,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>51.29026805369978</v>
+        <v>128.862389498137</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1838,7 +2054,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>49.8552129799553</v>
+        <v>111.1800392738671</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1849,7 +2065,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>47.04051529155643</v>
+        <v>105.720910608847</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1860,7 +2076,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>46.2793923455322</v>
+        <v>105.720910608847</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1871,7 +2087,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>45.80852785683747</v>
+        <v>105.6192437515412</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1882,7 +2098,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>45.78476939944511</v>
+        <v>105.0347577720327</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1893,7 +2109,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>44.90947426016831</v>
+        <v>102.012139682197</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1904,7 +2120,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>43.8583607590615</v>
+        <v>97.8268304095858</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1915,7 +2131,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>43.4739883643078</v>
+        <v>97.77906953110525</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1926,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>43.15218123270773</v>
+        <v>94.74427784542881</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1937,7 +2153,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>42.47447188591438</v>
+        <v>93.4139923902809</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1948,7 +2164,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>42.42426952243947</v>
+        <v>93.38932751161769</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1959,7 +2175,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>42.21817926400395</v>
+        <v>92.58557809163538</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1970,7 +2186,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>42.07185964782159</v>
+        <v>92.51396649725369</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1981,7 +2197,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>41.76318400213106</v>
+        <v>92.320750844567</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1992,7 +2208,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>41.71309015571349</v>
+        <v>92.28430172677041</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2003,7 +2219,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>41.08885197153266</v>
+        <v>92.28430172677041</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2014,7 +2230,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>40.87633049084107</v>
+        <v>90.58737883751822</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2025,7 +2241,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>40.72981372220777</v>
+        <v>90.04459861886546</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2036,7 +2252,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>39.91485594613999</v>
+        <v>89.5058844761175</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2047,7 +2263,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>39.77182795242598</v>
+        <v>88.29746460024998</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2058,7 +2274,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>39.35948139339996</v>
+        <v>86.34734417683352</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2069,7 +2285,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>39.31408955056256</v>
+        <v>86.18482814513123</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2080,7 +2296,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>39.2520886513238</v>
+        <v>85.6790672675132</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2091,7 +2307,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>39.25038695776821</v>
+        <v>85.57311356887728</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2102,7 +2318,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>38.99705335842302</v>
+        <v>85.09769893105943</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2113,7 +2329,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>38.94355401329786</v>
+        <v>81.51570178391174</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2124,7 +2340,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>38.71441282289254</v>
+        <v>80.99632690872664</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2135,7 +2351,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>38.25817036816368</v>
+        <v>80.66639961590006</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2146,7 +2362,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>38.12795552238802</v>
+        <v>80.22967125264665</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2157,7 +2373,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>38.12795552238802</v>
+        <v>79.37183655636531</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2168,7 +2384,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>37.94795966351157</v>
+        <v>78.71375698933406</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2179,7 +2395,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>37.223010526598</v>
+        <v>78.25560524365595</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2190,7 +2406,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>37.10194116388351</v>
+        <v>78.25560524365515</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2201,7 +2417,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>36.86044333509781</v>
+        <v>76.92108144820266</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2212,7 +2428,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>36.8233119156772</v>
+        <v>75.25849310524458</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2223,7 +2439,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>36.55389998219916</v>
+        <v>75.07884806855692</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2234,7 +2450,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>35.88896738495949</v>
+        <v>72.96663798089507</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2245,7 +2461,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>35.82106114605162</v>
+        <v>71.25532409842897</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2256,7 +2472,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>34.72080129278051</v>
+        <v>70.60367635133574</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2267,7 +2483,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>34.70145214774521</v>
+        <v>70.31984609428105</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2278,7 +2494,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>34.68476494458097</v>
+        <v>67.29850165869739</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2289,7 +2505,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>34.34074191043431</v>
+        <v>64.68819248171468</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2300,7 +2516,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>34.34074191043431</v>
+        <v>60.39145411204948</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2311,7 +2527,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>33.90624599124888</v>
+        <v>59.68919457582424</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2322,7 +2538,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>33.68969780314762</v>
+        <v>59.47960970512766</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2333,7 +2549,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>33.65369881696354</v>
+        <v>58.02049075948193</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2344,7 +2560,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>33.58491367783633</v>
+        <v>58.00509727110685</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2355,7 +2571,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>33.42634581358467</v>
+        <v>57.7946463768566</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2366,7 +2582,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>32.80899580899364</v>
+        <v>57.69136620399647</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2377,7 +2593,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>31.81612149230485</v>
+        <v>56.05126246126969</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2388,7 +2604,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>31.63604633881542</v>
+        <v>55.5068421939505</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2399,7 +2615,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>31.54845643135929</v>
+        <v>54.92142645261276</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2410,7 +2626,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>31.10746182120472</v>
+        <v>54.90930837403137</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2421,7 +2637,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>31.00199029752566</v>
+        <v>54.54847310060145</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2432,7 +2648,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>30.74629735359671</v>
+        <v>54.47874964847649</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2443,7 +2659,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>30.53772683399201</v>
+        <v>53.98730409055288</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2454,7 +2670,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>30.10725990199765</v>
+        <v>53.77837165587346</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2465,7 +2681,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>29.92792113733856</v>
+        <v>53.77837165587346</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2476,7 +2692,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>29.3306949588115</v>
+        <v>52.59842456543118</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2487,7 +2703,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>29.0595275258011</v>
+        <v>50.91551868273832</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2498,7 +2714,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>28.88045504739891</v>
+        <v>50.80003555141916</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2509,7 +2725,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>28.83473000753371</v>
+        <v>49.77677591008915</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2520,7 +2736,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>28.55226901803332</v>
+        <v>49.73241597567252</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2531,7 +2747,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>28.45397221342051</v>
+        <v>49.52547707386761</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2542,7 +2758,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>27.66658551163538</v>
+        <v>48.3895152402475</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2553,7 +2769,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>27.52493630437795</v>
+        <v>46.56281636258594</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2564,7 +2780,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>27.2451770016921</v>
+        <v>43.64370261907635</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2575,7 +2791,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>26.93845987095424</v>
+        <v>42.50962689872021</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2586,7 +2802,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>26.83263264868434</v>
+        <v>41.12228049973849</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2597,7 +2813,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>26.83263264868434</v>
+        <v>41.11201112963277</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2608,7 +2824,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>26.7052444219687</v>
+        <v>40.3297159039075</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2619,7 +2835,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>26.50959801231021</v>
+        <v>39.46017960223365</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2630,7 +2846,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>26.46152242628925</v>
+        <v>39.3810163401566</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2641,7 +2857,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>26.38066406323149</v>
+        <v>39.24212174559919</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2652,7 +2868,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>26.19634843273099</v>
+        <v>39.23779552162045</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2663,7 +2879,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>26.06994011642819</v>
+        <v>39.23233815925386</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2674,7 +2890,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>26.02438973736565</v>
+        <v>39.04331869618547</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2685,7 +2901,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>25.90788472607291</v>
+        <v>38.98272906083294</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2696,7 +2912,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>25.40288400180369</v>
+        <v>38.93682195328539</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2707,7 +2923,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>25.38987899328671</v>
+        <v>38.85399918930209</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2718,7 +2934,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>25.24639172048197</v>
+        <v>37.82230879247054</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2729,7 +2945,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>25.0768059799899</v>
+        <v>37.77551781002121</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2740,7 +2956,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>24.90389424191277</v>
+        <v>37.71619745980612</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2751,7 +2967,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>24.85531985804134</v>
+        <v>37.56226773224163</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2762,7 +2978,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>24.75208635068661</v>
+        <v>37.50038237192161</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2773,7 +2989,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>24.65668194337883</v>
+        <v>37.32369120950481</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2784,7 +3000,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>24.61796749075266</v>
+        <v>36.90654181043931</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2795,7 +3011,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>24.61588044161991</v>
+        <v>36.86950348192557</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2806,7 +3022,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>24.53737320356301</v>
+        <v>36.72813456785494</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2817,7 +3033,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>24.53737320356301</v>
+        <v>35.95301675858266</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2828,7 +3044,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>24.35646404943425</v>
+        <v>35.74230464086303</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2839,7 +3055,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>24.03166454650963</v>
+        <v>35.65374542738675</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2850,7 +3066,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>23.81071920803687</v>
+        <v>35.65359866683643</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2861,7 +3077,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>23.68268980859004</v>
+        <v>35.48006595312275</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2872,7 +3088,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>22.94678213714561</v>
+        <v>35.38652195775433</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2883,10 +3099,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>22.73131608553557</v>
+        <v>35.32691440494743</v>
       </c>
       <c r="C155">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2894,10 +3110,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>22.62293122375307</v>
+        <v>35.25055814396972</v>
       </c>
       <c r="C156">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2905,10 +3121,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>22.54244294238559</v>
+        <v>35.1822942238329</v>
       </c>
       <c r="C157">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2916,10 +3132,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>22.39133917160361</v>
+        <v>35.04103422986482</v>
       </c>
       <c r="C158">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2927,10 +3143,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>21.91456797289314</v>
+        <v>34.72416021146774</v>
       </c>
       <c r="C159">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2938,10 +3154,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>21.88822795924052</v>
+        <v>34.64242463120755</v>
       </c>
       <c r="C160">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2949,10 +3165,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>21.75250368168456</v>
+        <v>34.64242463120755</v>
       </c>
       <c r="C161">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2960,10 +3176,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>21.70156015904412</v>
+        <v>34.50773899430187</v>
       </c>
       <c r="C162">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2971,10 +3187,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>21.68703776214247</v>
+        <v>34.49170658504261</v>
       </c>
       <c r="C163">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2982,10 +3198,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>21.57886546356626</v>
+        <v>34.11366694238452</v>
       </c>
       <c r="C164">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2993,10 +3209,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>20.87960911994328</v>
+        <v>34.09089932343624</v>
       </c>
       <c r="C165">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3004,10 +3220,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>20.78965998523261</v>
+        <v>33.72555164664797</v>
       </c>
       <c r="C166">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3015,10 +3231,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>20.76780959543785</v>
+        <v>33.68848747071107</v>
       </c>
       <c r="C167">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3026,10 +3242,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>20.61732172880132</v>
+        <v>33.67079343752764</v>
       </c>
       <c r="C168">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3037,10 +3253,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>20.57180412131431</v>
+        <v>33.57088268762202</v>
       </c>
       <c r="C169">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3048,10 +3264,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>20.51732514118636</v>
+        <v>33.35006809592684</v>
       </c>
       <c r="C170">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3059,10 +3275,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>20.34765298142248</v>
+        <v>33.26473046139296</v>
       </c>
       <c r="C171">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3070,10 +3286,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>20.33425753610262</v>
+        <v>32.87900688883049</v>
       </c>
       <c r="C172">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3081,10 +3297,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>20.32341183644487</v>
+        <v>32.86516802137152</v>
       </c>
       <c r="C173">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3092,10 +3308,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>20.18794211128858</v>
+        <v>32.54099499083426</v>
       </c>
       <c r="C174">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3103,10 +3319,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>20.05965615645623</v>
+        <v>32.34067688173239</v>
       </c>
       <c r="C175">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3114,10 +3330,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>20.02514623243148</v>
+        <v>32.12000282240747</v>
       </c>
       <c r="C176">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3125,10 +3341,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>19.99122914014063</v>
+        <v>31.89995932215881</v>
       </c>
       <c r="C177">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3136,10 +3352,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>19.9762554296599</v>
+        <v>31.8863549779384</v>
       </c>
       <c r="C178">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3147,10 +3363,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>19.70735448535515</v>
+        <v>31.87507397935421</v>
       </c>
       <c r="C179">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3158,10 +3374,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>19.64271770947779</v>
+        <v>31.66336339087259</v>
       </c>
       <c r="C180">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3169,10 +3385,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>19.59120431245436</v>
+        <v>31.52576621694342</v>
       </c>
       <c r="C181">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3180,10 +3396,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>19.35673430064817</v>
+        <v>31.42512957999026</v>
       </c>
       <c r="C182">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3191,10 +3407,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>19.26705801175244</v>
+        <v>30.78524029512162</v>
       </c>
       <c r="C183">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3202,10 +3418,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>19.17520809021704</v>
+        <v>30.51103227828846</v>
       </c>
       <c r="C184">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3213,10 +3429,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>19.09823776387489</v>
+        <v>30.46835820353439</v>
       </c>
       <c r="C185">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3224,10 +3440,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>19.02609689459006</v>
+        <v>30.41048197101091</v>
       </c>
       <c r="C186">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3235,10 +3451,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>18.97551852012477</v>
+        <v>29.65929415544918</v>
       </c>
       <c r="C187">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3246,10 +3462,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>18.8992258920066</v>
+        <v>29.65929415544918</v>
       </c>
       <c r="C188">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3257,10 +3473,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>18.78602847073631</v>
+        <v>29.12722974687905</v>
       </c>
       <c r="C189">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3268,10 +3484,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>18.75718200058532</v>
+        <v>28.20262087136295</v>
       </c>
       <c r="C190">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3279,10 +3495,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>18.64129378350878</v>
+        <v>27.91532351724102</v>
       </c>
       <c r="C191">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3290,10 +3506,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>18.63723157599932</v>
+        <v>27.83023808988442</v>
       </c>
       <c r="C192">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3301,10 +3517,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>18.44251105523955</v>
+        <v>27.80101289414727</v>
       </c>
       <c r="C193">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3312,10 +3528,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>18.36158103988642</v>
+        <v>27.68222146277292</v>
       </c>
       <c r="C194">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3323,10 +3539,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>18.26725808126411</v>
+        <v>27.61880579986142</v>
       </c>
       <c r="C195">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3334,10 +3550,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>18.16744662169851</v>
+        <v>27.440030774624</v>
       </c>
       <c r="C196">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3345,10 +3561,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>18.14729980133257</v>
+        <v>27.27955783721434</v>
       </c>
       <c r="C197">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3356,10 +3572,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>18.13043231070253</v>
+        <v>27.26551492217397</v>
       </c>
       <c r="C198">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3367,10 +3583,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>18.12648508888752</v>
+        <v>26.91955889596993</v>
       </c>
       <c r="C199">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3378,10 +3594,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>18.07864596133426</v>
+        <v>26.58887550040722</v>
       </c>
       <c r="C200">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3389,10 +3605,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>18.07375414794826</v>
+        <v>26.316017676784</v>
       </c>
       <c r="C201">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3400,10 +3616,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>17.99605153444405</v>
+        <v>26.08770669838934</v>
       </c>
       <c r="C202">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3411,10 +3627,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>17.9591481691354</v>
+        <v>25.5468808021069</v>
       </c>
       <c r="C203">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3422,10 +3638,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>17.86077450396338</v>
+        <v>25.5468808021069</v>
       </c>
       <c r="C204">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3433,10 +3649,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>17.82577799888674</v>
+        <v>24.99989694467979</v>
       </c>
       <c r="C205">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3444,10 +3660,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>17.82016570870136</v>
+        <v>24.87729422058248</v>
       </c>
       <c r="C206">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3455,10 +3671,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>17.7146649146836</v>
+        <v>24.76086077045379</v>
       </c>
       <c r="C207">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3466,10 +3682,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>17.63521147286361</v>
+        <v>24.68862310217075</v>
       </c>
       <c r="C208">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3477,10 +3693,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>17.43346789389622</v>
+        <v>24.65158607343863</v>
       </c>
       <c r="C209">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3488,10 +3704,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>17.42931959353986</v>
+        <v>24.59959312807297</v>
       </c>
       <c r="C210">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3499,10 +3715,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>17.21386133007617</v>
+        <v>24.43276916280022</v>
       </c>
       <c r="C211">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3510,10 +3726,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>17.16909347890426</v>
+        <v>24.38208768384512</v>
       </c>
       <c r="C212">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3521,10 +3737,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>17.05287558981811</v>
+        <v>24.34839699560037</v>
       </c>
       <c r="C213">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3532,10 +3748,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>16.87442321780863</v>
+        <v>24.11988964769508</v>
       </c>
       <c r="C214">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3543,10 +3759,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>16.63073406455417</v>
+        <v>23.94525499449656</v>
       </c>
       <c r="C215">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3554,10 +3770,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>16.62857767454942</v>
+        <v>23.92180352035038</v>
       </c>
       <c r="C216">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3565,10 +3781,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>16.29542385504401</v>
+        <v>23.88805886217701</v>
       </c>
       <c r="C217">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3576,10 +3792,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>16.19739889548645</v>
+        <v>23.56474798560037</v>
       </c>
       <c r="C218">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3587,10 +3803,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>16.19608732456299</v>
+        <v>23.56474798560037</v>
       </c>
       <c r="C219">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3598,10 +3814,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>16.19322168678349</v>
+        <v>23.54037351411315</v>
       </c>
       <c r="C220">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3609,10 +3825,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>16.18930925714747</v>
+        <v>23.09497091112875</v>
       </c>
       <c r="C221">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3620,10 +3836,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>16.17119780110034</v>
+        <v>22.9946805489704</v>
       </c>
       <c r="C222">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3631,10 +3847,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>16.11850373456895</v>
+        <v>22.95552232606484</v>
       </c>
       <c r="C223">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3642,10 +3858,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>16.06161006583596</v>
+        <v>22.93267032375037</v>
       </c>
       <c r="C224">
-        <v>0.00011</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3653,10 +3869,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>16.04537311934318</v>
+        <v>22.74591462508359</v>
       </c>
       <c r="C225">
-        <v>0.00011</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3664,10 +3880,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>15.71021807791579</v>
+        <v>22.72437016059957</v>
       </c>
       <c r="C226">
-        <v>0.00012</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3675,10 +3891,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>15.70657291320335</v>
+        <v>22.67184583868988</v>
       </c>
       <c r="C227">
-        <v>0.00012</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3686,10 +3902,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>15.28547563678491</v>
+        <v>22.59357149566377</v>
       </c>
       <c r="C228">
-        <v>0.00015</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3697,10 +3913,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>14.75914051182224</v>
+        <v>22.54996810088338</v>
       </c>
       <c r="C229">
-        <v>0.00019</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3708,10 +3924,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>14.75914051182224</v>
+        <v>22.51196923458487</v>
       </c>
       <c r="C230">
-        <v>0.00019</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3719,10 +3935,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>14.210768515327</v>
+        <v>22.51175662702766</v>
       </c>
       <c r="C231">
-        <v>0.00025</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3730,10 +3946,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>14.20060353560673</v>
+        <v>22.15993870266823</v>
       </c>
       <c r="C232">
-        <v>0.00025</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3741,10 +3957,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>14.176999152084</v>
+        <v>22.02987467035893</v>
       </c>
       <c r="C233">
-        <v>0.00026</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3752,10 +3968,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>13.97869730542158</v>
+        <v>21.80119906268614</v>
       </c>
       <c r="C234">
-        <v>0.00028</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3763,10 +3979,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>13.16057712566129</v>
+        <v>21.74979862521149</v>
       </c>
       <c r="C235">
-        <v>0.00042</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3774,10 +3990,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>13.06874134291406</v>
+        <v>21.65910584524842</v>
       </c>
       <c r="C236">
-        <v>0.00044</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3785,10 +4001,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>12.97695708764729</v>
+        <v>20.95162159397789</v>
       </c>
       <c r="C237">
-        <v>0.00045</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3796,10 +4012,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>12.74055251681842</v>
+        <v>20.79333196109651</v>
       </c>
       <c r="C238">
-        <v>0.00051</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3807,10 +4023,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>12.49975967722072</v>
+        <v>20.74331195378315</v>
       </c>
       <c r="C239">
-        <v>0.00057</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3818,10 +4034,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>12.46785761550033</v>
+        <v>20.73498153128471</v>
       </c>
       <c r="C240">
-        <v>0.00058</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3829,10 +4045,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>12.38248277547275</v>
+        <v>20.64904209795633</v>
       </c>
       <c r="C241">
-        <v>0.00061</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3840,10 +4056,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>10.42667775516908</v>
+        <v>20.54111891934915</v>
       </c>
       <c r="C242">
-        <v>0.00159</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3851,10 +4067,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>10.10131723122829</v>
+        <v>20.39991619425355</v>
       </c>
       <c r="C243">
-        <v>0.00187</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3862,10 +4078,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>9.639899458697425</v>
+        <v>19.96521830491706</v>
       </c>
       <c r="C244">
-        <v>0.00236</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3873,10 +4089,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>9.43896895323207</v>
+        <v>19.91694856419286</v>
       </c>
       <c r="C245">
-        <v>0.00261</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3884,10 +4100,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>9.376040428636399</v>
+        <v>19.88339876600995</v>
       </c>
       <c r="C246">
-        <v>0.0027</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3895,10 +4111,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>9.33369996324579</v>
+        <v>19.70979846873209</v>
       </c>
       <c r="C247">
-        <v>0.00275</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3906,10 +4122,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>9.2892365116089</v>
+        <v>19.68524994277036</v>
       </c>
       <c r="C248">
-        <v>0.00282</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3917,10 +4133,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>9.124725052845367</v>
+        <v>19.51280295404794</v>
       </c>
       <c r="C249">
-        <v>0.00306</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3928,10 +4144,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>9.064560920417399</v>
+        <v>19.39356652178557</v>
       </c>
       <c r="C250">
-        <v>0.00316</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3939,10 +4155,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>8.967415758754901</v>
+        <v>18.89334392594331</v>
       </c>
       <c r="C251">
-        <v>0.00332</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3950,10 +4166,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>8.934072502981662</v>
+        <v>18.88587292566132</v>
       </c>
       <c r="C252">
-        <v>0.00338</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3961,10 +4177,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>8.562313654358181</v>
+        <v>18.82662543960441</v>
       </c>
       <c r="C253">
-        <v>0.00408</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3972,10 +4188,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>8.493327655847647</v>
+        <v>18.74967914089026</v>
       </c>
       <c r="C254">
-        <v>0.00423</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3983,10 +4199,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>8.486626347974914</v>
+        <v>18.74743599300013</v>
       </c>
       <c r="C255">
-        <v>0.00424</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3994,10 +4210,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>8.478242045139508</v>
+        <v>18.67188226174316</v>
       </c>
       <c r="C256">
-        <v>0.00426</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4005,10 +4221,10 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>8.458492035396345</v>
+        <v>18.63053397024463</v>
       </c>
       <c r="C257">
-        <v>0.00431</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4016,10 +4232,10 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>8.263174999869753</v>
+        <v>18.59637382628055</v>
       </c>
       <c r="C258">
-        <v>0.00476</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4027,10 +4243,10 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>7.894428623344002</v>
+        <v>18.44646058056996</v>
       </c>
       <c r="C259">
-        <v>0.00576</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4038,10 +4254,10 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>7.776900898350852</v>
+        <v>18.37727772894663</v>
       </c>
       <c r="C260">
-        <v>0.00613</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4049,10 +4265,10 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>7.753168577663253</v>
+        <v>18.33184245350789</v>
       </c>
       <c r="C261">
-        <v>0.0062</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4060,10 +4276,10 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>7.596027043294196</v>
+        <v>18.30873826788923</v>
       </c>
       <c r="C262">
-        <v>0.00673</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4071,10 +4287,10 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>7.525837630171995</v>
+        <v>18.30868946399837</v>
       </c>
       <c r="C263">
-        <v>0.00698</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4082,10 +4298,10 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>7.381355878582107</v>
+        <v>18.21571112269174</v>
       </c>
       <c r="C264">
-        <v>0.00753</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4093,10 +4309,10 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>7.279669709349321</v>
+        <v>18.05536009499687</v>
       </c>
       <c r="C265">
-        <v>0.00795</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4104,10 +4320,10 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>7.240475257471543</v>
+        <v>18.00943651234311</v>
       </c>
       <c r="C266">
-        <v>0.008109999999999999</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4115,10 +4331,10 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>7.162853153044384</v>
+        <v>18.00444341090117</v>
       </c>
       <c r="C267">
-        <v>0.008449999999999999</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4126,10 +4342,10 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>7.11987440946568</v>
+        <v>17.85526721772651</v>
       </c>
       <c r="C268">
-        <v>0.00864</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4137,10 +4353,802 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>7.047979076212546</v>
+        <v>17.63933350739646</v>
       </c>
       <c r="C269">
-        <v>0.00898</v>
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>17.58754032244279</v>
+      </c>
+      <c r="C270">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>17.42724745072729</v>
+      </c>
+      <c r="C271">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>17.4113573849374</v>
+      </c>
+      <c r="C272">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>17.41070028342672</v>
+      </c>
+      <c r="C273">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>17.36951699965594</v>
+      </c>
+      <c r="C274">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>17.3619457766448</v>
+      </c>
+      <c r="C275">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>17.33887286847474</v>
+      </c>
+      <c r="C276">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>17.30757198638644</v>
+      </c>
+      <c r="C277">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>17.24428204453056</v>
+      </c>
+      <c r="C278">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>17.23539169441613</v>
+      </c>
+      <c r="C279">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>17.22621567922519</v>
+      </c>
+      <c r="C280">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>17.11108404954613</v>
+      </c>
+      <c r="C281">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>17.0248846268762</v>
+      </c>
+      <c r="C282">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>17.02340473219673</v>
+      </c>
+      <c r="C283">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>16.99996971490029</v>
+      </c>
+      <c r="C284">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>16.97710254363895</v>
+      </c>
+      <c r="C285">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>16.91341280149855</v>
+      </c>
+      <c r="C286">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>16.76758404096571</v>
+      </c>
+      <c r="C287">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>16.71706662740074</v>
+      </c>
+      <c r="C288">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>16.67935112118335</v>
+      </c>
+      <c r="C289">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>16.64679989544477</v>
+      </c>
+      <c r="C290">
+        <v>8.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>16.57373488063336</v>
+      </c>
+      <c r="C291">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>16.54983119840214</v>
+      </c>
+      <c r="C292">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>16.51242233898338</v>
+      </c>
+      <c r="C293">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>16.34102563209777</v>
+      </c>
+      <c r="C294">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>16.33200142740177</v>
+      </c>
+      <c r="C295">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>16.33097961178864</v>
+      </c>
+      <c r="C296">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>16.31383368465404</v>
+      </c>
+      <c r="C297">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>16.30570769719617</v>
+      </c>
+      <c r="C298">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>16.24580979436767</v>
+      </c>
+      <c r="C299">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>16.01225914480795</v>
+      </c>
+      <c r="C300">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>15.96377679619232</v>
+      </c>
+      <c r="C301">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>15.82768445294198</v>
+      </c>
+      <c r="C302">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>15.63705329626553</v>
+      </c>
+      <c r="C303">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>15.50857792912417</v>
+      </c>
+      <c r="C304">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>15.33695547728411</v>
+      </c>
+      <c r="C305">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>15.29123132364544</v>
+      </c>
+      <c r="C306">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>14.85441638389587</v>
+      </c>
+      <c r="C307">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>14.85331691730045</v>
+      </c>
+      <c r="C308">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>14.85067817725342</v>
+      </c>
+      <c r="C309">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>14.84711001945565</v>
+      </c>
+      <c r="C310">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>14.70007193783155</v>
+      </c>
+      <c r="C311">
+        <v>0.00021</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>14.5888669481061</v>
+      </c>
+      <c r="C312">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>14.5762243321577</v>
+      </c>
+      <c r="C313">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>14.29177733686669</v>
+      </c>
+      <c r="C314">
+        <v>0.00025</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>13.98394747249527</v>
+      </c>
+      <c r="C315">
+        <v>0.00029</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>13.98394747249527</v>
+      </c>
+      <c r="C316">
+        <v>0.00029</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>13.8040924478771</v>
+      </c>
+      <c r="C317">
+        <v>0.00031</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>13.63604365092153</v>
+      </c>
+      <c r="C318">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>13.14673869088125</v>
+      </c>
+      <c r="C319">
+        <v>0.00043</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>13.12720636039147</v>
+      </c>
+      <c r="C320">
+        <v>0.00043</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>13.08436316839934</v>
+      </c>
+      <c r="C321">
+        <v>0.00044</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>12.85815193623027</v>
+      </c>
+      <c r="C322">
+        <v>0.00049</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>12.11959350254598</v>
+      </c>
+      <c r="C323">
+        <v>0.00071</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>12.10297670247601</v>
+      </c>
+      <c r="C324">
+        <v>0.00071</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>11.41169172864559</v>
+      </c>
+      <c r="C325">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>10.79282118336254</v>
+      </c>
+      <c r="C326">
+        <v>0.00135</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>10.64124415356231</v>
+      </c>
+      <c r="C327">
+        <v>0.00146</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>10.54985586887139</v>
+      </c>
+      <c r="C328">
+        <v>0.00152</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>9.77200457764849</v>
+      </c>
+      <c r="C329">
+        <v>0.00224</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>9.707167364447097</v>
+      </c>
+      <c r="C330">
+        <v>0.00232</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>8.927718329795079</v>
+      </c>
+      <c r="C331">
+        <v>0.00343</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>8.789213263018732</v>
+      </c>
+      <c r="C332">
+        <v>0.00368</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>8.414205929963227</v>
+      </c>
+      <c r="C333">
+        <v>0.00446</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>8.211612227396367</v>
+      </c>
+      <c r="C334">
+        <v>0.00495</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>8.180491659757974</v>
+      </c>
+      <c r="C335">
+        <v>0.00503</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>8.012813007464503</v>
+      </c>
+      <c r="C336">
+        <v>0.00548</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>7.666366582966942</v>
+      </c>
+      <c r="C337">
+        <v>0.00656</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>7.007461391240395</v>
+      </c>
+      <c r="C338">
+        <v>0.009259999999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>6.969192674313787</v>
+      </c>
+      <c r="C339">
+        <v>0.00944</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>6.931251718418449</v>
+      </c>
+      <c r="C340">
+        <v>0.00963</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>6.920091575254405</v>
+      </c>
+      <c r="C341">
+        <v>0.009690000000000001</v>
       </c>
     </row>
   </sheetData>
